--- a/WebprogramozásBeadandóHtmlCssBootstrap.xlsx
+++ b/WebprogramozásBeadandóHtmlCssBootstrap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\t_Szab.Eman\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Zeteny suli\9.c\beadandó html2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A90ACAE-A0E2-4765-8897-70EB9E23ACF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7721DED1-C12E-4400-B42E-6BC561100556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fedőlap" sheetId="2" r:id="rId1"/>
@@ -1197,6 +1197,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,12 +1234,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1245,13 +1252,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ezres" xfId="1" builtinId="3"/>
@@ -1300,27 +1300,27 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D11" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D11" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D12" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D12" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D13" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D13" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D14" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D14" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D15" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D15" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D17" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D17" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,35 +1336,35 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1372,19 +1372,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D27" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D27" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D29" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D30" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D30" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1392,39 +1392,39 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D31" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D31" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D32" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D32" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D33" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D33" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D34" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D34" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D38" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D38" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D39" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D39" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1432,7 +1432,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1476,7 +1476,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D6" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D6" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1520,7 +1520,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1564,7 +1564,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1596,11 +1596,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="D10" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="D10" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8586,7 +8586,7 @@
   <dimension ref="A1:J464"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="B13:D13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8605,15 +8605,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
     </row>
@@ -8622,12 +8622,12 @@
       <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
       <c r="I2" s="31"/>
       <c r="J2" s="31"/>
     </row>
@@ -8636,12 +8636,12 @@
       <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
     </row>
@@ -8650,12 +8650,12 @@
       <c r="B4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
     </row>
@@ -8673,30 +8673,30 @@
     </row>
     <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
-      <c r="B7" s="94" t="str">
+      <c r="B7" s="97" t="str">
         <f>CONCATENATE("Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább ",D11," pontot el kell érni. A tanulói és tanári értékelés tekintetében, maximum 10 darab irányelvben lehet eltérés.")</f>
         <v>Az irányelvek között vannak kiemelt (sárga háttérszínnel és félkövér kiemeléssel jelölt) elvek , amelyek betartására kiemelten figyelni kell! Az elégséges szinthez legalább 20 pontot el kell érni. A tanulói és tanári értékelés tekintetében, maximum 10 darab irányelvben lehet eltérés.</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
     </row>
@@ -8728,68 +8728,68 @@
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="78">
         <f>SUM(Irányelvek!G:G)</f>
         <v>80</v>
       </c>
       <c r="E10" s="31"/>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="84"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="79">
         <v>20</v>
       </c>
       <c r="E11" s="31"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="90"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="78">
         <v>20</v>
       </c>
       <c r="E12" s="31"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="90"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="78">
         <v>40</v>
       </c>
       <c r="E13" s="31"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
     </row>
@@ -8799,9 +8799,9 @@
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
@@ -8821,10 +8821,10 @@
     </row>
     <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="90"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="30" t="b">
         <f t="array" ref="D16">IF(COUNTIFS(Irányelvek!D2:D39,"=hamis",Irányelvek!F2:F39,"=Igaz")=0,TRUE,FALSE)</f>
         <v>0</v>
@@ -8838,74 +8838,74 @@
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="90"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="33">
         <f>SUM(Irányelvek!H2:H39)</f>
-        <v>-36</v>
+        <v>73</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="97" t="str">
+      <c r="F17" s="81" t="str">
         <f>VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE)</f>
-        <v>Elégtelen (1)</v>
-      </c>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
+        <v>Jeles (5)</v>
+      </c>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="96"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="36">
         <f>IF(D17&gt;D11,VLOOKUP(SUM(Irányelvek!J2:J39),Ponthatárok!G2:H12,2,TRUE),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="90"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="80">
         <v>40</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="90"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="33">
         <f>SUM(D17:D19)</f>
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="85" t="str">
+      <c r="F20" s="90" t="str">
         <f>CONCATENATE("Az önértékelés alapján ",VLOOKUP(D20,Ponthatárok!$C$3:$D$7,2,TRUE), "  érdemjegyet kapnál rá.")</f>
-        <v>Az önértékelés alapján Elégtelen (1)  érdemjegyet kapnál rá.</v>
-      </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
+        <v>Az önértékelés alapján Jeles (5)  érdemjegyet kapnál rá.</v>
+      </c>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
     </row>
@@ -9356,10 +9356,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Pt2r10NfCQvSDRx8qMjGYxYpEYBoOyIK56jWLg5u88pMtB0yZv+L45h/PZkvP5rgD0XQukcG0FY9SUv/PUWVng==" saltValue="OS0FMTO/1nXUT8EsxtE52w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="18">
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -9374,6 +9370,10 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="F17:H19"/>
     <mergeCell ref="F10:H14"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D17:D20">
     <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
@@ -9395,8 +9395,8 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9456,7 +9456,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="38" t="b">
         <v>1</v>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="H2" s="39">
         <f>IF(D2=TRUE,G2,IF(F2=TRUE,-2,""))</f>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="40">
         <f>IF(E2=TRUE,G2,IF(F2=TRUE,-2,""))</f>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="J2" s="41">
         <f>IF(H2=I2,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9491,7 +9491,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="16" t="b">
         <v>1</v>
@@ -9500,9 +9500,9 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="13" t="str">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H39" si="0">IF(D3=TRUE,G3,IF(F3=TRUE,-2,""))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I3" s="14">
         <f t="shared" ref="I3:I39" si="1">IF(E3=TRUE,G3,IF(F3=TRUE,-2,""))</f>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="J3" s="42">
         <f t="shared" ref="J3:J39" si="2">IF(H3=I3,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -9560,7 +9560,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="17" t="b">
         <v>1</v>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="H5" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="J5" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7"/>
     </row>
@@ -9596,7 +9596,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="17" t="b">
         <v>1</v>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="H6" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="1"/>
@@ -9617,7 +9617,7 @@
       </c>
       <c r="J6" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9631,7 +9631,7 @@
         <v>70</v>
       </c>
       <c r="D7" s="44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="45" t="b">
         <v>1</v>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="H7" s="47">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I7" s="48">
         <f t="shared" si="1"/>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="J7" s="49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9666,7 +9666,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="57" t="b">
         <v>1</v>
@@ -9675,9 +9675,9 @@
       <c r="G8" s="39">
         <v>1</v>
       </c>
-      <c r="H8" s="39" t="str">
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I8" s="40">
         <f t="shared" si="1"/>
@@ -9685,7 +9685,7 @@
       </c>
       <c r="J8" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9699,7 +9699,7 @@
         <v>34</v>
       </c>
       <c r="D9" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="17" t="b">
         <v>1</v>
@@ -9708,9 +9708,9 @@
       <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="H9" s="13" t="str">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" si="1"/>
@@ -9718,7 +9718,7 @@
       </c>
       <c r="J9" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9732,7 +9732,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="17" t="b">
         <v>1</v>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="H10" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="14">
         <f t="shared" si="1"/>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="J10" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9767,7 +9767,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="17" t="b">
         <v>1</v>
@@ -9780,7 +9780,7 @@
       </c>
       <c r="H11" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="J11" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9802,7 +9802,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="17" t="b">
         <v>1</v>
@@ -9811,9 +9811,9 @@
       <c r="G12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="13" t="str">
+      <c r="H12" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
@@ -9821,7 +9821,7 @@
       </c>
       <c r="J12" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9835,7 +9835,7 @@
         <v>71</v>
       </c>
       <c r="D13" s="21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="19" t="b">
         <v>1</v>
@@ -9848,7 +9848,7 @@
       </c>
       <c r="H13" s="61">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I13" s="62">
         <f t="shared" si="1"/>
@@ -9856,7 +9856,7 @@
       </c>
       <c r="J13" s="63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -9870,7 +9870,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="57" t="b">
         <v>1</v>
@@ -9883,7 +9883,7 @@
       </c>
       <c r="H14" s="39">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="40">
         <f t="shared" si="1"/>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="J14" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -9905,7 +9905,7 @@
         <v>75</v>
       </c>
       <c r="D15" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="17" t="b">
         <v>1</v>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="H15" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="1"/>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="J15" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -9975,7 +9975,7 @@
         <v>77</v>
       </c>
       <c r="D17" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="17" t="b">
         <v>1</v>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="H17" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="1"/>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="J17" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -10045,7 +10045,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="57" t="b">
         <v>1</v>
@@ -10054,9 +10054,9 @@
       <c r="G19" s="39">
         <v>1</v>
       </c>
-      <c r="H19" s="39" t="str">
+      <c r="H19" s="39">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I19" s="40">
         <f t="shared" si="1"/>
@@ -10064,7 +10064,7 @@
       </c>
       <c r="J19" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -10078,7 +10078,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="17" t="b">
         <v>1</v>
@@ -10087,9 +10087,9 @@
       <c r="G20" s="2">
         <v>1</v>
       </c>
-      <c r="H20" s="13" t="str">
+      <c r="H20" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" si="1"/>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="J20" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10111,7 +10111,7 @@
         <v>27</v>
       </c>
       <c r="D21" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="17" t="b">
         <v>1</v>
@@ -10120,9 +10120,9 @@
       <c r="G21" s="2">
         <v>1</v>
       </c>
-      <c r="H21" s="13" t="str">
+      <c r="H21" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" si="1"/>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="J21" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -10144,7 +10144,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="17" t="b">
         <v>1</v>
@@ -10153,9 +10153,9 @@
       <c r="G22" s="2">
         <v>1</v>
       </c>
-      <c r="H22" s="13" t="str">
+      <c r="H22" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I22" s="14">
         <f t="shared" si="1"/>
@@ -10163,7 +10163,7 @@
       </c>
       <c r="J22" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10177,7 +10177,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="17" t="b">
         <v>1</v>
@@ -10186,9 +10186,9 @@
       <c r="G23" s="2">
         <v>1</v>
       </c>
-      <c r="H23" s="13" t="str">
+      <c r="H23" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I23" s="14">
         <f t="shared" si="1"/>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="J23" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10210,7 +10210,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="17" t="b">
         <v>1</v>
@@ -10219,9 +10219,9 @@
       <c r="G24" s="2">
         <v>1</v>
       </c>
-      <c r="H24" s="13" t="str">
+      <c r="H24" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I24" s="14">
         <f t="shared" si="1"/>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="J24" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -10243,7 +10243,7 @@
         <v>15</v>
       </c>
       <c r="D25" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="17" t="b">
         <v>1</v>
@@ -10252,9 +10252,9 @@
       <c r="G25" s="2">
         <v>1</v>
       </c>
-      <c r="H25" s="13" t="str">
+      <c r="H25" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="1"/>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="J25" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10311,7 +10311,7 @@
         <v>72</v>
       </c>
       <c r="D27" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="57" t="b">
         <v>1</v>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="H27" s="39">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="I27" s="40">
         <f t="shared" si="1"/>
@@ -10332,7 +10332,7 @@
       </c>
       <c r="J27" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10346,7 +10346,7 @@
         <v>6</v>
       </c>
       <c r="D28" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="17" t="b">
         <v>1</v>
@@ -10355,9 +10355,9 @@
       <c r="G28" s="2">
         <v>1</v>
       </c>
-      <c r="H28" s="13" t="str">
+      <c r="H28" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I28" s="14">
         <f t="shared" si="1"/>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="J28" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10379,7 +10379,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="17" t="b">
         <v>1</v>
@@ -10388,9 +10388,9 @@
       <c r="G29" s="2">
         <v>1</v>
       </c>
-      <c r="H29" s="13" t="str">
+      <c r="H29" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I29" s="14">
         <f t="shared" si="1"/>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="J29" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10412,7 +10412,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="45" t="b">
         <v>1</v>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="H30" s="47">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I30" s="48">
         <f t="shared" si="1"/>
@@ -10433,7 +10433,7 @@
       </c>
       <c r="J30" s="49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10447,7 +10447,7 @@
         <v>43</v>
       </c>
       <c r="D31" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="57" t="b">
         <v>1</v>
@@ -10460,7 +10460,7 @@
       </c>
       <c r="H31" s="39">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I31" s="40">
         <f t="shared" si="1"/>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="J31" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10482,7 +10482,7 @@
         <v>44</v>
       </c>
       <c r="D32" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="17" t="b">
         <v>1</v>
@@ -10491,9 +10491,9 @@
       <c r="G32" s="2">
         <v>1</v>
       </c>
-      <c r="H32" s="13" t="str">
+      <c r="H32" s="13">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I32" s="14">
         <f t="shared" si="1"/>
@@ -10501,7 +10501,7 @@
       </c>
       <c r="J32" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10515,7 +10515,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="17" t="b">
         <v>1</v>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="H33" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I33" s="14">
         <f t="shared" si="1"/>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="J33" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10550,7 +10550,7 @@
         <v>49</v>
       </c>
       <c r="D34" s="59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="45" t="b">
         <v>1</v>
@@ -10559,9 +10559,9 @@
       <c r="G34" s="46">
         <v>2</v>
       </c>
-      <c r="H34" s="47" t="str">
+      <c r="H34" s="47">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="I34" s="48">
         <f t="shared" si="1"/>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="J34" s="49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10583,7 +10583,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="57" t="b">
         <v>1</v>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="H35" s="39">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="40">
         <f t="shared" si="1"/>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="J35" s="41">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10618,7 +10618,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="17" t="b">
         <v>1</v>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="H36" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I36" s="14">
         <f t="shared" si="1"/>
@@ -10639,7 +10639,7 @@
       </c>
       <c r="J36" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10653,7 +10653,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="17" t="b">
         <v>1</v>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="H37" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I37" s="14">
         <f t="shared" si="1"/>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="J37" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10688,7 +10688,7 @@
         <v>47</v>
       </c>
       <c r="D38" s="18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="17" t="b">
         <v>1</v>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="H38" s="13">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I38" s="14">
         <f t="shared" si="1"/>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="J38" s="42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10723,7 +10723,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="45" t="b">
         <v>1</v>
@@ -10736,7 +10736,7 @@
       </c>
       <c r="H39" s="47">
         <f t="shared" si="0"/>
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I39" s="48">
         <f t="shared" si="1"/>
@@ -10744,7 +10744,7 @@
       </c>
       <c r="J39" s="49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
